--- a/StructureDefinition-cbs-specimen.xlsx
+++ b/StructureDefinition-cbs-specimen.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -492,11 +492,11 @@
     <t>Id for specimen.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type.coding.code}
+    <t xml:space="preserve">pattern:type}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.type.coding.code</t>
+    <t>Slice based on the identifier.type</t>
   </si>
   <si>
     <t>.id</t>
@@ -590,6 +590,14 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;code value="PLAC"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0203</t>
   </si>
   <si>
@@ -597,188 +605,6 @@
   </si>
   <si>
     <t>CX.5</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>PLAC</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Specimen.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Specimen.identifier.system</t>
@@ -882,7 +708,12 @@
     <t>fillerAssignedId</t>
   </si>
   <si>
-    <t>FILL</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;code value="FILL"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Specimen.accessionIdentifier</t>
@@ -1786,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL90"/>
+  <dimension ref="A1:AL68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1795,7 +1626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1821,8 +1652,8 @@
     <col min="24" max="24" width="55.1796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="62.28515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.9140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="41.6171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.06640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3573,7 +3404,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>84</v>
@@ -3610,7 +3441,7 @@
         <v>76</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>76</v>
@@ -3629,7 +3460,7 @@
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3647,7 +3478,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3668,12 +3499,12 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3687,25 +3518,29 @@
         <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3717,7 +3552,7 @@
         <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>76</v>
@@ -3753,7 +3588,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3765,53 +3600,53 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3825,7 +3660,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3849,45 +3684,45 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3898,7 +3733,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3910,20 +3745,16 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3971,13 +3802,13 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -3986,18 +3817,18 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4017,18 +3848,20 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -4077,7 +3910,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4089,54 +3922,54 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4173,19 +4006,19 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4197,21 +4030,21 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4231,23 +4064,19 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4295,7 +4124,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4307,32 +4136,32 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4341,19 +4170,19 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4391,45 +4220,45 @@
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4437,7 +4266,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>84</v>
@@ -4446,7 +4275,7 @@
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>85</v>
@@ -4455,14 +4284,16 @@
         <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4472,7 +4303,7 @@
         <v>76</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>76</v>
@@ -4487,13 +4318,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4511,7 +4342,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4526,18 +4357,18 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4545,7 +4376,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>84</v>
@@ -4560,17 +4391,19 @@
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4580,7 +4413,7 @@
         <v>76</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>76</v>
@@ -4595,13 +4428,11 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4619,7 +4450,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4634,18 +4465,18 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4659,7 +4490,7 @@
         <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4668,19 +4499,19 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4693,7 +4524,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4729,7 +4560,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4744,18 +4575,18 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4763,13 +4594,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4781,17 +4612,15 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4803,7 +4632,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4839,7 +4668,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4854,18 +4683,18 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4879,7 +4708,7 @@
         <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4888,20 +4717,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4913,7 +4738,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4949,7 +4774,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4964,18 +4789,18 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4983,13 +4808,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4998,16 +4823,16 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5021,7 +4846,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5057,7 +4882,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5072,18 +4897,18 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>263</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5106,13 +4931,13 @@
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5163,7 +4988,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5178,18 +5003,18 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>270</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5206,22 +5031,22 @@
         <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>272</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5247,13 +5072,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -5271,7 +5096,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5286,22 +5111,20 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5322,15 +5145,17 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5355,13 +5180,11 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5379,13 +5202,13 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5394,18 +5217,18 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>156</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5413,31 +5236,33 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5485,7 +5310,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5497,54 +5322,52 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5581,45 +5404,45 @@
         <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5630,32 +5453,30 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5679,13 +5500,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5703,13 +5524,13 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5718,18 +5539,18 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5740,7 +5561,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5749,23 +5570,21 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5789,11 +5608,13 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
@@ -5811,13 +5632,13 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -5826,18 +5647,18 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>186</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5860,13 +5681,13 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5917,7 +5738,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5929,32 +5750,32 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -5966,17 +5787,15 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6013,31 +5832,31 @@
         <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>162</v>
@@ -6051,11 +5870,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6071,23 +5890,21 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6135,7 +5952,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6147,53 +5964,57 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6241,22 +6062,22 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6267,18 +6088,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6287,20 +6108,18 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6337,45 +6156,45 @@
         <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6389,7 +6208,7 @@
         <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6398,20 +6217,16 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6459,7 +6274,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6474,18 +6289,18 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>207</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6508,17 +6323,15 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6567,7 +6380,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6582,18 +6395,18 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>215</v>
+        <v>304</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6601,33 +6414,31 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6636,7 +6447,7 @@
         <v>76</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>76</v>
@@ -6675,7 +6486,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6690,18 +6501,18 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>222</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6721,21 +6532,19 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6759,13 +6568,13 @@
         <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>76</v>
@@ -6783,7 +6592,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6798,18 +6607,18 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>229</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6823,29 +6632,27 @@
         <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6869,13 +6676,11 @@
         <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>76</v>
@@ -6893,7 +6698,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6908,18 +6713,18 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>238</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6942,19 +6747,19 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6979,13 +6784,13 @@
         <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>76</v>
@@ -7003,7 +6808,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7018,18 +6823,18 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>246</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7040,32 +6845,28 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7077,7 +6878,7 @@
         <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>76</v>
@@ -7113,13 +6914,13 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -7128,18 +6929,18 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7147,32 +6948,30 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7185,7 +6984,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7221,7 +7020,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7233,32 +7032,32 @@
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7267,18 +7066,20 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -7327,67 +7128,69 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7435,33 +7238,33 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7481,16 +7284,16 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7541,7 +7344,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7556,18 +7359,18 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7584,23 +7387,21 @@
         <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7625,13 +7426,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7649,7 +7450,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7664,18 +7465,18 @@
         <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7686,29 +7487,27 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>179</v>
+        <v>351</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7733,11 +7532,13 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y55" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -7755,13 +7556,13 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -7770,18 +7571,18 @@
         <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>303</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7789,33 +7590,31 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
       </c>
@@ -7863,7 +7662,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7878,18 +7677,18 @@
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7900,25 +7699,25 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7969,13 +7768,13 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -7984,18 +7783,18 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8006,7 +7805,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -8018,17 +7817,15 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>320</v>
+        <v>159</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8077,22 +7874,22 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
@@ -8103,11 +7900,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8126,16 +7923,16 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>326</v>
+        <v>164</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>165</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8185,7 +7982,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>324</v>
+        <v>167</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8197,53 +7994,57 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8291,33 +8092,33 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>336</v>
+        <v>127</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8328,7 +8129,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -8337,16 +8138,16 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>159</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8397,44 +8198,44 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>161</v>
+        <v>366</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>76</v>
@@ -8446,17 +8247,15 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8505,22 +8304,22 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8531,43 +8330,39 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8591,13 +8386,13 @@
         <v>76</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>76</v>
@@ -8615,33 +8410,33 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8661,16 +8456,16 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8721,7 +8516,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8736,18 +8531,18 @@
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8761,22 +8556,22 @@
         <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8827,7 +8622,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8842,18 +8637,18 @@
         <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8873,16 +8668,16 @@
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8909,13 +8704,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -8933,7 +8728,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -8948,18 +8743,18 @@
         <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8970,28 +8765,32 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J67" t="s" s="2">
-        <v>364</v>
+        <v>179</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
       </c>
@@ -9015,13 +8814,13 @@
         <v>76</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>76</v>
@@ -9039,13 +8838,13 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9054,18 +8853,18 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9076,10 +8875,10 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9088,13 +8887,13 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>179</v>
+        <v>407</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9121,13 +8920,13 @@
         <v>76</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>76</v>
@@ -9145,13 +8944,13 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9160,2369 +8959,17 @@
         <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="X69" s="2"/>
-      <c r="Y69" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL90">
+  <autoFilter ref="A1:AL68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11532,7 +8979,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI89">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cbs-specimen.xlsx
+++ b/StructureDefinition-cbs-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -788,7 +788,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/cbs-patient)
+    <t xml:space="preserve">Reference(http://cbsig.chai.gatech.edu/StructureDefinition/us-cbs-patient)
 </t>
   </si>
   <si>

--- a/StructureDefinition-cbs-specimen.xlsx
+++ b/StructureDefinition-cbs-specimen.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
